--- a/Text/仕様書石塚.xlsx
+++ b/Text/仕様書石塚.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\monja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\monja\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
   </bookViews>
   <sheets>
-    <sheet name="主人公の能力" sheetId="1" r:id="rId1"/>
-    <sheet name="操作方法" sheetId="3" r:id="rId2"/>
-    <sheet name="ステータスUI" sheetId="4" r:id="rId3"/>
-    <sheet name="敵" sheetId="5" r:id="rId4"/>
+    <sheet name="シーンフロー" sheetId="6" r:id="rId1"/>
+    <sheet name="主人公の能力" sheetId="1" r:id="rId2"/>
+    <sheet name="操作方法" sheetId="3" r:id="rId3"/>
+    <sheet name="ステータスUI" sheetId="4" r:id="rId4"/>
+    <sheet name="敵" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,9 +27,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>　シーンフロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +59,14 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -75,11 +93,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -100,6 +121,1648 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521073</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>547407</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197785</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6090397" y="3508003"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>643401</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1423524" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424451" y="904874"/>
+          <a:ext cx="1423524" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>37148</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1286827" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1503998" y="2124075"/>
+          <a:ext cx="1286827" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>612485</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>193626</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184730" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5508335" y="2308176"/>
+          <a:ext cx="184730" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193386</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98376</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184730" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5775036" y="1022301"/>
+          <a:ext cx="184730" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>681501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1394950" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1462551" y="3476625"/>
+          <a:ext cx="1394950" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332816</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>84605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>36978</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3167904" y="1003487"/>
+          <a:ext cx="4306420" cy="3717550"/>
+          <a:chOff x="-1471332" y="902635"/>
+          <a:chExt cx="4306420" cy="3717550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1441637" y="902635"/>
+            <a:ext cx="1393451" cy="451597"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ゲーム起動</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1441637" y="2060201"/>
+            <a:ext cx="1393451" cy="515471"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1471332" y="2503955"/>
+            <a:ext cx="1395692" cy="518272"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+              <a:t>設定</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="下矢印 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1915646" y="1456204"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="下矢印 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1925171" y="2699497"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="左右矢印 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="47626" y="2482663"/>
+            <a:ext cx="1207433" cy="413497"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="-1456765" y="937372"/>
+            <a:ext cx="1395693" cy="451597"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ゲーム終了</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="下矢印 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1925171" y="4073338"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51546</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="下矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6533029" y="5446059"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>496981</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6039971" y="4885765"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>WIN</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488577</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514911</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057901" y="6158754"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ショップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>196663</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>233083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3688977" y="3543301"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>GEMEOVER</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8615083" y="3225052"/>
+          <a:ext cx="1582269" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>インベントリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>456637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473824" y="4946278"/>
+          <a:ext cx="1868578" cy="858370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>リトライ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（ステージ１）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="屈折矢印 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3697941" y="1524000"/>
+          <a:ext cx="2241177" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>239244</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1680881" y="4594412"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320489</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8624048" y="3816724"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>517710</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544044</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087034" y="7398124"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>311524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>337858</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8615083" y="5208495"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>417979</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165227" y="4230781"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>212910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="屈折矢印 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2218765" y="3641910"/>
+          <a:ext cx="1299881" cy="784412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="左右矢印 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5154706" y="3563470"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679076</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>174811</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="左右矢印 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7615517" y="3312458"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>58270</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>217395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="下矢印 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6539753" y="6707842"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>13446</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="左右矢印 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7633446" y="3745005"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2244,7 +3907,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3310,7 +4973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4013,7 +5676,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5496,7 +7159,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
@@ -5513,7 +7202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5529,7 +7218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5545,7 +7234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Text/仕様書石塚.xlsx
+++ b/Text/仕様書石塚.xlsx
@@ -122,64 +122,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>521073</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>547407</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197785</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6090397" y="3508003"/>
-          <a:ext cx="1393451" cy="432547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ステージ１</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -425,7 +367,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>332816</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>84605</xdr:rowOff>
+      <xdr:rowOff>52107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -440,10 +382,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3167904" y="1003487"/>
-          <a:ext cx="4306420" cy="3717550"/>
-          <a:chOff x="-1471332" y="902635"/>
-          <a:chExt cx="4306420" cy="3717550"/>
+          <a:off x="3167904" y="970989"/>
+          <a:ext cx="4306420" cy="3750048"/>
+          <a:chOff x="-1471332" y="870137"/>
+          <a:chExt cx="4306420" cy="3750048"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -543,7 +485,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1471332" y="2503955"/>
+            <a:off x="-1471332" y="2391896"/>
             <a:ext cx="1395692" cy="518272"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -666,7 +608,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="47626" y="2482663"/>
+            <a:off x="36420" y="2370604"/>
             <a:ext cx="1207433" cy="413497"/>
           </a:xfrm>
           <a:prstGeom prst="leftRightArrow">
@@ -705,7 +647,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="-1456765" y="937372"/>
+            <a:off x="-1456765" y="870137"/>
             <a:ext cx="1395693" cy="451597"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -788,68 +730,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>51546</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>132230</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="下矢印 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6533029" y="5446059"/>
-          <a:ext cx="454958" cy="546847"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>496981</xdr:colOff>
+      <xdr:colOff>564217</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:to>
@@ -860,7 +748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6039971" y="4885765"/>
+          <a:off x="6107207" y="4885765"/>
           <a:ext cx="1393451" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -901,32 +789,855 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>488577</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>62754</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514911</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>24654</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="31" name="屈折矢印 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057901" y="6158754"/>
-          <a:ext cx="1393451" cy="432547"/>
+        <a:xfrm flipH="1">
+          <a:off x="3664324" y="1456764"/>
+          <a:ext cx="2241177" cy="918882"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1736911" y="3225052"/>
+          <a:ext cx="8516471" cy="4706472"/>
+          <a:chOff x="1680881" y="3225052"/>
+          <a:chExt cx="8516471" cy="4706472"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6090397" y="3508003"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ステージ１</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="下矢印 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6555441" y="5524500"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6113931" y="6147548"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ショップ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3688977" y="3543301"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>GEMEOVER</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8615083" y="3225052"/>
+            <a:ext cx="1582269" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>インベントリ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3473824" y="4946278"/>
+            <a:ext cx="1868578" cy="858370"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>リトライ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>（ステージ１）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1680881" y="4594412"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8691283" y="3805518"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>設定</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6098240" y="7498977"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ステージ２</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="下矢印 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4165227" y="4230781"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="屈折矢印 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2218765" y="3641910"/>
+            <a:ext cx="1299881" cy="784412"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="左右矢印 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7615517" y="3312458"/>
+            <a:ext cx="862853" cy="403412"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="下矢印 40"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6562165" y="6763872"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="左右矢印 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7633446" y="3745005"/>
+            <a:ext cx="862853" cy="403412"/>
+          </a:xfrm>
+          <a:prstGeom prst="leftRightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>119344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>654984</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197974" y="11627785"/>
+          <a:ext cx="1393451" cy="855567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>（２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>４</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>６）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454959</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>226358</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="下矢印 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707841" y="12747813"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652184</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>147919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678518</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>109819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6221508" y="15186213"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -959,84 +1670,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>170330</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>35860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430307</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>196663</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>233083</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>645459</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3688977" y="3543301"/>
-          <a:ext cx="1393451" cy="432547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>GEMEOVER</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>311524</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150158</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8615083" y="3225052"/>
+          <a:off x="8733866" y="11624982"/>
           <a:ext cx="1582269" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1076,210 +1728,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638736</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>26896</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>450478</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>181536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>456637</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476812</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>143436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3473824" y="4946278"/>
-          <a:ext cx="1868578" cy="858370"/>
+          <a:off x="8754037" y="12160624"/>
+          <a:ext cx="1393451" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>リトライ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>（ステージ１）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="屈折矢印 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3697941" y="1524000"/>
-          <a:ext cx="2241177" cy="918882"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
           </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>212910</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>239244</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1680881" y="4594412"/>
-          <a:ext cx="1393451" cy="432547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>320489</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>346823</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>35859</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8624048" y="3816724"/>
-          <a:ext cx="1393451" cy="432547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1313,25 +1789,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>517710</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>125506</xdr:rowOff>
+      <xdr:colOff>490818</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>544044</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87406</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>56031</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>60512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6087034" y="7398124"/>
-          <a:ext cx="1393451" cy="432547"/>
+          <a:off x="6060142" y="16548847"/>
+          <a:ext cx="1615889" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,7 +1837,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ステージ２</a:t>
+            <a:t>ボスステージ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1370,32 +1846,1101 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>623047</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>121026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>6725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1407459" y="16571261"/>
+          <a:ext cx="3724834" cy="2238935"/>
+          <a:chOff x="1788458" y="11663084"/>
+          <a:chExt cx="3724834" cy="2238935"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3796554" y="11663084"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>GEMEOVER</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3435723" y="13043649"/>
+            <a:ext cx="2077569" cy="858370"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>リトライ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>（ボスステージ）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1788458" y="12714195"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="下矢印 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4272804" y="12350564"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="屈折矢印 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2326342" y="11761693"/>
+            <a:ext cx="1299881" cy="784412"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>311524</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53789</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>337858</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15689</xdr:rowOff>
+      <xdr:colOff>316006</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="56" name="左右矢印 55"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8615083" y="5208495"/>
+          <a:off x="7756712" y="11633947"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121023</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>121023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>300317</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="左右矢印 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7741023" y="12100111"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5255559" y="3529853"/>
+          <a:ext cx="784412" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>116545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>680758</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>103092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6223748" y="17978721"/>
+          <a:ext cx="1393451" cy="2810430"/>
+          <a:chOff x="6257366" y="13552397"/>
+          <a:chExt cx="1393451" cy="2810430"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6257366" y="13552397"/>
+            <a:ext cx="1393451" cy="466162"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>WIN</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="下矢印 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6725771" y="14289742"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="下矢印 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6741457" y="15815980"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450475</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>78439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>221874</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>154639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="下矢印 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6703357" y="17234645"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>472887</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>60513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>215155</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1940858" y="11804278"/>
+          <a:ext cx="3740524" cy="2272553"/>
+          <a:chOff x="1788458" y="11651878"/>
+          <a:chExt cx="3740524" cy="2272553"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3729319" y="11651878"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>GEMEOVER</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3458136" y="13066061"/>
+            <a:ext cx="2070846" cy="858370"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>リトライ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>（同じステージ）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1788458" y="12714195"/>
+            <a:ext cx="1393451" cy="432547"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>タイトル</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="下矢印 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4239186" y="12305740"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="屈折矢印 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="2326342" y="11761693"/>
+            <a:ext cx="1299881" cy="784412"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477370</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="右矢印 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5363135" y="11840135"/>
+          <a:ext cx="784412" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>224120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>210668</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="グループ化 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6219266" y="13615149"/>
+          <a:ext cx="1393451" cy="2810431"/>
+          <a:chOff x="6066866" y="13462749"/>
+          <a:chExt cx="1393451" cy="2810431"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6066866" y="13462749"/>
+            <a:ext cx="1393451" cy="466162"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+              <a:t>WIN</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="下矢印 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6546476" y="14291982"/>
+            <a:ext cx="454958" cy="544608"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="下矢印 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6550956" y="15726333"/>
+            <a:ext cx="454958" cy="546847"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>210672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>674034</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>172572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6217024" y="19484790"/>
           <a:ext cx="1393451" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -1419,7 +2964,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>ステージ１</a:t>
+            <a:t>ショップ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1428,28 +2973,86 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>646580</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17369</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542365</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>417979</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93569</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107578</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4165227" y="4230781"/>
-          <a:ext cx="454958" cy="546847"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+          <a:off x="6111689" y="21037923"/>
+          <a:ext cx="1615889" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>次のステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="右矢印 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5000065" y="16575741"/>
+          <a:ext cx="784412" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -1482,30 +3085,151 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>212910</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>62752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="屈折矢印 37"/>
+        <xdr:cNvPr id="80" name="正方形/長方形 79"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2218765" y="3641910"/>
-          <a:ext cx="1299881" cy="784412"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentUpArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm>
+          <a:off x="8987119" y="16315764"/>
+          <a:ext cx="1582269" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>インベントリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20172</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46506</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>127747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9007290" y="16851406"/>
+          <a:ext cx="1393451" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389965</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>569259</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="左右矢印 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8009965" y="16324729"/>
+          <a:ext cx="862853" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1536,25 +3260,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>374276</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>105334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553570</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="左右矢印 38"/>
+        <xdr:cNvPr id="83" name="左右矢印 82"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5154706" y="3563470"/>
+          <a:off x="7994276" y="16790893"/>
           <a:ext cx="862853" cy="403412"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -1593,33 +3317,146 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>679076</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>208429</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="左右矢印 39"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7615517" y="3312458"/>
-          <a:ext cx="862853" cy="403412"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+          <a:off x="8404412" y="19341353"/>
+          <a:ext cx="2364442" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:srgbClr val="FFFF00"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>最後のボスステージをクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8792135" y="21096194"/>
+          <a:ext cx="1685364" cy="508747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>ゲームクリア</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407895</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>4486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>80686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="下矢印 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9395013" y="20455221"/>
+          <a:ext cx="454958" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1650,29 +3487,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>286871</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>141195</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>58270</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>217395</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201708</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="下矢印 40"/>
+        <xdr:cNvPr id="18" name="屈折矢印 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6539753" y="6707842"/>
-          <a:ext cx="454958" cy="546847"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
+        <a:xfrm flipV="1">
+          <a:off x="7720854" y="18063882"/>
+          <a:ext cx="2151530" cy="1053355"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 23889"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -1704,33 +3545,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>13446</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>192740</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="左右矢印 41"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7633446" y="3745005"/>
-          <a:ext cx="862853" cy="403412"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftRightArrow">
+          <a:off x="13043647" y="1176618"/>
+          <a:ext cx="2106706" cy="795618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>単方向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>634252</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13039164" y="1945341"/>
+          <a:ext cx="2106706" cy="795618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>双方向</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12113559" y="1176618"/>
+          <a:ext cx="930088" cy="773206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1754,6 +3738,243 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>387724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>634253</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="正方形/長方形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12109077" y="1956547"/>
+          <a:ext cx="930088" cy="773206"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="右矢印 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12254753" y="1351430"/>
+          <a:ext cx="632011" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>481851</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>199464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="左右矢印 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12203204" y="2151530"/>
+          <a:ext cx="762001" cy="378758"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="773206" y="9816353"/>
+          <a:ext cx="5490882" cy="1154205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボスステージに行って、次のステージ、またはゲームクリアまでの流れ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7159,8 +9380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
